--- a/downloads/transaction_details.xlsx
+++ b/downloads/transaction_details.xlsx
@@ -338,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -346,14 +346,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -661,503 +719,482 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="203" customWidth="true" style="0"/>
-    <col min="2" max="2" width="203" customWidth="true" style="0"/>
-    <col min="3" max="3" width="203" customWidth="true" style="0"/>
-    <col min="4" max="4" width="203" customWidth="true" style="0"/>
-    <col min="5" max="5" width="203" customWidth="true" style="0"/>
-    <col min="6" max="6" width="203" customWidth="true" style="0"/>
-    <col min="7" max="7" width="203" customWidth="true" style="0"/>
-    <col min="8" max="8" width="203" customWidth="true" style="0"/>
-    <col min="9" max="9" width="203" customWidth="true" style="0"/>
-    <col min="10" max="10" width="203" customWidth="true" style="0"/>
-    <col min="11" max="11" width="203" customWidth="true" style="0"/>
-    <col min="12" max="12" width="203" customWidth="true" style="0"/>
-    <col min="13" max="13" width="203" customWidth="true" style="0"/>
-    <col min="14" max="14" width="203" customWidth="true" style="0"/>
-    <col min="15" max="15" width="203" customWidth="true" style="0"/>
-    <col min="16" max="16" width="203" customWidth="true" style="0"/>
-    <col min="17" max="17" width="203" customWidth="true" style="0"/>
-    <col min="18" max="18" width="203" customWidth="true" style="0"/>
-    <col min="19" max="19" width="203" customWidth="true" style="0"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:110">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="2" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2" t="s">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="7"/>
       <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="3"/>
       <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="3"/>
       <c r="AZ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="3"/>
       <c r="BC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="2" t="s">
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="7"/>
       <c r="BO1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="2" t="s">
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="6"/>
+      <c r="CI1" s="7"/>
       <c r="CJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="2" t="s">
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
+      <c r="CQ1" s="6"/>
+      <c r="CR1" s="6"/>
+      <c r="CS1" s="6"/>
+      <c r="CT1" s="6"/>
+      <c r="CU1" s="7"/>
       <c r="CV1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="2" t="s">
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="8" t="s">
         <v>51</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="3"/>
     </row>
     <row r="2" spans="1:110">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AL2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AM2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AN2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AO2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AP2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BH2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BI2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BK2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BL2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BM2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BO2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BP2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BR2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BS2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BT2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BU2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BV2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BW2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BX2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BY2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="BZ2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CA2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CB2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CC2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CD2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CE2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CF2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CG2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CH2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CI2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="CJ2" s="1" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CK2" s="1" t="s">
+      <c r="CK2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="CL2" s="1" t="s">
+      <c r="CL2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CM2" s="1" t="s">
+      <c r="CM2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CN2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CO2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CP2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CR2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CS2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CT2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CU2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="CV2" s="1" t="s">
+      <c r="CV2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="CW2" s="1" t="s">
+      <c r="CW2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" s="1" t="s">
+      <c r="CX2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" s="1" t="s">
+      <c r="CY2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" s="1" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" s="1" t="s">
+      <c r="DA2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DB2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="DC2" s="1" t="s">
+      <c r="DC2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="DD2" s="1" t="s">
+      <c r="DD2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="DE2" s="1" t="s">
+      <c r="DE2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="DF2" s="1" t="s">
+      <c r="DF2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4482,334 +4519,334 @@
       </c>
     </row>
     <row r="14" spans="1:110">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="Q14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="V14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL14" s="3" t="s">
+      <c r="X14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AM14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO14" s="3" t="s">
+      <c r="AM14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AP14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AQ14" s="3" t="s">
+      <c r="AQ14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AR14" s="3" t="s">
+      <c r="AR14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AS14" s="3" t="s">
+      <c r="AS14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AT14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BA14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BC14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BD14" s="3" t="s">
+      <c r="AT14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BC14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD14" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="BE14" s="3" t="s">
+      <c r="BE14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="BF14" s="3" t="s">
+      <c r="BF14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="BG14" s="3" t="s">
+      <c r="BG14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BH14" s="3">
+      <c r="BH14" s="9">
         <v>4</v>
       </c>
-      <c r="BI14" s="3" t="s">
+      <c r="BI14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="BJ14" s="3" t="s">
+      <c r="BJ14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BK14" s="3" t="s">
+      <c r="BK14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="BL14" s="3" t="s">
+      <c r="BL14" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BM14" s="3">
+      <c r="BM14" s="9">
         <v>2000</v>
       </c>
-      <c r="BN14" s="3" t="s">
+      <c r="BN14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BO14" s="3" t="s">
+      <c r="BO14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BP14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BR14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BT14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BU14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BV14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BW14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BX14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BZ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CA14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CB14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CC14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CE14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CF14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CG14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CH14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CI14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CJ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CK14" s="3" t="s">
+      <c r="BP14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BQ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BR14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BS14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BT14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BX14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CB14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CC14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CE14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CI14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="CL14" s="3" t="s">
+      <c r="CL14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="CM14" s="3" t="s">
+      <c r="CM14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="CN14" s="3" t="s">
+      <c r="CN14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="CO14" s="3" t="s">
+      <c r="CO14" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="CP14" s="3" t="s">
+      <c r="CP14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="CQ14" s="3" t="s">
+      <c r="CQ14" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="CR14" s="3" t="s">
+      <c r="CR14" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CS14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CT14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CU14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CV14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CW14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CX14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CZ14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="DA14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="DB14" s="3" t="s">
+      <c r="CS14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CT14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CU14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CV14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CW14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CX14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="DA14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="DB14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="DC14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="DD14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="DE14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="DF14" s="3" t="s">
+      <c r="DC14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="DD14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="DE14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="DF14" s="9" t="s">
         <v>61</v>
       </c>
     </row>
